--- a/biology/Botanique/Parasolier/Parasolier.xlsx
+++ b/biology/Botanique/Parasolier/Parasolier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Musanga cecropioides
 Le parasolier (Musanga cecropioides) est une espèce de plantes à fleurs de la famille des Urticacées. C'est un arbre commun des forêts humides d'Afrique. On le rencontre typiquement dans les forêts secondaires, où cette espèce pionnière, à croissance rapide et héliophile profite des coupes et éclaircies.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parasolier est un arbre au port en parasol - justifiant son nom - à croissance rapide. Ses feuilles sont palmées, et son tronc blanc jaunâtre. Il peut atteindre une trentaine de mètres de hauteur.
 </t>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parasolier se rencontre dans les forêts humides secondaires d'Afrique, depuis le Sierra Leone et le Liberia jusqu'à l'Angola, en passant naturellement par les grandes forêts du Bassin du Congo. Il s'étend à l'est jusqu'à l'Ouganda.
 On le trouve aussi en Polynésie (Iles de la société).
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois du parasolier est léger, tendre, de couleur pâle. Il a rapidement tendance à se ternir et à se dégrader. De ce fait, il n'est pas utilisé comme bois d'œuvre pour l'exportation.
 En revanche, facile à travailler et présent aux abords des villages, dans les anciennes zones d'exploitation ou en bordure des zones d'abatis brûlis, le parasolier est utilisé localement pour la réalisation de charpentes de cases, de meubles, ou encore de jouets pour (et par) les enfants.
@@ -609,9 +627,11 @@
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les parasoliers abritent fréquemment d'abondantes colonies de fourmis du genre Crematogaster qui y creusent des galeries et y aménagent des étables à cochenilles. Il semble que les parasoliers jouent le rôle d'une niche écologique de remplacement pour ces fourmis dans les forêts secondaires, en l'absence de bois mort[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parasoliers abritent fréquemment d'abondantes colonies de fourmis du genre Crematogaster qui y creusent des galeries et y aménagent des étables à cochenilles. Il semble que les parasoliers jouent le rôle d'une niche écologique de remplacement pour ces fourmis dans les forêts secondaires, en l'absence de bois mort.
 C'est une espèce reconnue pour son tempérament d'héliophile, elle s'installe dans des endroits ouverts par un chablis naturels ou artificiels.
 </t>
         </is>
@@ -641,7 +661,9 @@
           <t>Autres appellations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le parasolier est aussi connu sous les noms suivants :
 Musanga,
